--- a/respostas corretas.xlsx
+++ b/respostas corretas.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\Cet-programacao\C#\ProjetoFinal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14803EA7-EC55-44E1-B3BF-F2467CBC8712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3002DA68-52B2-4EFA-B002-35CCFCFD5651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{44AB95E7-39D4-4275-86E5-E60BE7C893E0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{44AB95E7-39D4-4275-86E5-E60BE7C893E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Javascript" sheetId="1" r:id="rId1"/>
     <sheet name="Sql" sheetId="2" r:id="rId2"/>
+    <sheet name="Folha3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -401,7 +402,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE5079C0-EB18-41F0-83ED-21F247E84558}">
   <dimension ref="A1:A30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -569,7 +570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E38B43BF-F60C-4591-9E75-D97C6DB9C052}">
   <dimension ref="A1:A30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -728,4 +729,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{299A1C33-D360-4CF6-A771-44347FCDE2E5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>